--- a/Chonqqing Power Grid/data-files/14-18年电商数据（金额、数量）.xlsx
+++ b/Chonqqing Power Grid/data-files/14-18年电商数据（金额、数量）.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>铅封</t>
   </si>
@@ -120,14 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>科技项目含税总金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科技项目数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>零购含税总金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,22 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>信息项目含税总金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息项目数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>营销项目含税总金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>营销项目数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>运维及成本含税总金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,6 +149,38 @@
   </si>
   <si>
     <t>零购数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息含税总金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技含税总金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营销含税总金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营销数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应急数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应急含税总金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE25"/>
+  <dimension ref="A1:AG25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -616,7 +624,7 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
@@ -654,49 +662,55 @@
         <v>25</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="S1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>2014</v>
       </c>
@@ -739,14 +753,14 @@
       <c r="P2" s="2">
         <v>2200</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="AA2" s="2">
         <v>30056.363999999998</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="AB2" s="2">
         <v>23703</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>2014</v>
       </c>
@@ -782,14 +796,16 @@
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
-      <c r="X3" s="3">
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3">
         <v>8131.5</v>
       </c>
-      <c r="Y3" s="3">
+      <c r="AA3" s="3">
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2014</v>
       </c>
@@ -833,14 +849,16 @@
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
-      <c r="X4" s="6">
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6">
         <v>278161.65000000002</v>
       </c>
-      <c r="Y4" s="6">
+      <c r="AA4" s="6">
         <v>5324</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>2014</v>
       </c>
@@ -896,8 +914,10 @@
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>2015</v>
       </c>
@@ -932,8 +952,10 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
-    </row>
-    <row r="7" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+    </row>
+    <row r="7" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>2015</v>
       </c>
@@ -990,14 +1012,16 @@
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
-      <c r="Y7" s="7">
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7">
         <v>57395.052000000011</v>
       </c>
-      <c r="Z7" s="7">
+      <c r="AB7" s="7">
         <v>36555</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>2015</v>
       </c>
@@ -1034,14 +1058,16 @@
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
-      <c r="Y8" s="3">
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3">
         <v>5470.3349999999991</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>2015</v>
       </c>
@@ -1098,14 +1124,16 @@
       <c r="T9" s="3">
         <v>25</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="AA9" s="3">
         <v>77091.885000000009</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>3307</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>2016</v>
       </c>
@@ -1158,14 +1186,16 @@
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
-      <c r="Y10" s="3">
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3">
         <v>54902.998800000001</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>5249</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>2016</v>
       </c>
@@ -1208,8 +1238,10 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>2016</v>
       </c>
@@ -1260,20 +1292,22 @@
       </c>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
-      <c r="W12" s="7">
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7">
         <v>124.95599999999999</v>
       </c>
-      <c r="X12" s="7">
+      <c r="Z12" s="7">
         <v>60</v>
       </c>
-      <c r="Y12" s="7">
+      <c r="AA12" s="7">
         <v>43484.337</v>
       </c>
-      <c r="Z12" s="7">
+      <c r="AB12" s="7">
         <v>12170</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>2016</v>
       </c>
@@ -1318,14 +1352,16 @@
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
-      <c r="Y13" s="3">
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3">
         <v>5164.9650000000001</v>
       </c>
-      <c r="Z13" s="3">
+      <c r="AB13" s="3">
         <v>375</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>2017</v>
       </c>
@@ -1374,14 +1410,16 @@
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
-      <c r="Y14" s="3">
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3">
         <v>45478.192499999997</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="15" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>2017</v>
       </c>
@@ -1426,14 +1464,16 @@
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
-      <c r="Y15" s="7">
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7">
         <v>56823.448499999999</v>
       </c>
-      <c r="Z15" s="7">
+      <c r="AB15" s="7">
         <v>20375</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>2017</v>
       </c>
@@ -1474,14 +1514,16 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-      <c r="Y16" s="3">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3">
         <v>9945</v>
       </c>
-      <c r="Z16" s="3">
+      <c r="AB16" s="3">
         <v>10150</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>2017</v>
       </c>
@@ -1514,14 +1556,16 @@
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
-      <c r="Y17" s="3">
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3">
         <v>706.00139999999988</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>2018</v>
       </c>
@@ -1558,26 +1602,28 @@
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
-      <c r="U18" s="9">
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9">
         <v>391.30279999999993</v>
       </c>
-      <c r="V18" s="9">
+      <c r="X18" s="9">
         <v>70</v>
       </c>
-      <c r="W18" s="9">
+      <c r="Y18" s="9">
         <v>268.31959999999998</v>
       </c>
-      <c r="X18" s="9">
+      <c r="Z18" s="9">
         <v>48</v>
       </c>
-      <c r="Y18" s="9">
+      <c r="AA18" s="9">
         <v>24210.011999999995</v>
       </c>
-      <c r="Z18" s="9">
+      <c r="AB18" s="9">
         <v>9000</v>
       </c>
     </row>
-    <row r="19" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>2018</v>
       </c>
@@ -1624,16 +1670,18 @@
       </c>
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
-      <c r="W19" s="9">
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9">
         <v>28713.178400000004</v>
       </c>
-      <c r="X19" s="9">
+      <c r="Z19" s="9">
         <v>3010</v>
       </c>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
-    </row>
-    <row r="20" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
+    </row>
+    <row r="20" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>2018</v>
       </c>
@@ -1682,14 +1730,16 @@
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
       <c r="X20" s="12"/>
-      <c r="Y20" s="12">
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12">
         <v>7713.9931999999999</v>
       </c>
-      <c r="Z20" s="12">
+      <c r="AB20" s="12">
         <v>6350</v>
       </c>
     </row>
-    <row r="21" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>2018</v>
       </c>
@@ -1722,14 +1772,16 @@
       <c r="V21" s="9"/>
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
-      <c r="Y21" s="9">
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9">
         <v>14000.039999999999</v>
       </c>
-      <c r="Z21" s="9">
+      <c r="AB21" s="9">
         <v>200000</v>
       </c>
     </row>
-    <row r="22" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>2018</v>
       </c>
@@ -1780,20 +1832,22 @@
       </c>
       <c r="U22" s="9"/>
       <c r="V22" s="9"/>
-      <c r="W22" s="9">
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9">
         <v>3130172.0719999992</v>
       </c>
-      <c r="X22" s="9">
+      <c r="Z22" s="9">
         <v>487941</v>
       </c>
-      <c r="Y22" s="9">
+      <c r="AA22" s="9">
         <v>78310.521200000003</v>
       </c>
-      <c r="Z22" s="9">
+      <c r="AB22" s="9">
         <v>12206</v>
       </c>
     </row>
-    <row r="23" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>2018</v>
       </c>
@@ -1840,8 +1894,10 @@
       <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
       <c r="Z23" s="9"/>
-    </row>
-    <row r="24" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+    </row>
+    <row r="24" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>2018</v>
       </c>
@@ -1880,16 +1936,18 @@
       </c>
       <c r="U24" s="9"/>
       <c r="V24" s="9"/>
-      <c r="W24" s="9">
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9">
         <v>94882.037599999996</v>
       </c>
-      <c r="X24" s="9">
+      <c r="Z24" s="9">
         <v>22</v>
       </c>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="9"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>2018</v>
       </c>
@@ -1938,6 +1996,8 @@
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
